--- a/biology/Zoologie/Bruant_maritime_(nigrescens)/Bruant_maritime_(nigrescens).xlsx
+++ b/biology/Zoologie/Bruant_maritime_(nigrescens)/Bruant_maritime_(nigrescens).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ammospiza maritima nigrescens
-Le Bruant maritime (nigrescens) (Ammospiza maritima nigrescens, anciennement Ammodramus maritimus nigrescens) est une sous-espèce du Bruant maritime (Ammospiza maritima), une espèce d'oiseaux de la famille des Passerellidae[1].
-Cette sous-espèce, que l'on trouvait surtout sur l'île Merritt, en Floride, est passée de 3 000 couples à zéro quand les marais salants qui formaient son habitat traditionnel ont été traités au DDT et occupés par le programme spatial. Le dernier représentant de cette sous-espèce est mort le 17 juin 1987[2] et elle a été déclarée éteinte en décembre 1990.
+Le Bruant maritime (nigrescens) (Ammospiza maritima nigrescens, anciennement Ammodramus maritimus nigrescens) est une sous-espèce du Bruant maritime (Ammospiza maritima), une espèce d'oiseaux de la famille des Passerellidae.
+Cette sous-espèce, que l'on trouvait surtout sur l'île Merritt, en Floride, est passée de 3 000 couples à zéro quand les marais salants qui formaient son habitat traditionnel ont été traités au DDT et occupés par le programme spatial. Le dernier représentant de cette sous-espèce est mort le 17 juin 1987 et elle a été déclarée éteinte en décembre 1990.
 </t>
         </is>
       </c>
